--- a/medicine/Sexualité et sexologie/Snowballing/Snowballing.xlsx
+++ b/medicine/Sexualité et sexologie/Snowballing/Snowballing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le snowballing (« boule de neige » en français) est une pratique sexuelle qui consiste à faire passer le sperme d'une bouche à l'autre, généralement pour embrasser son partenaire.
@@ -512,11 +524,13 @@
           <t>Pratique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des chercheurs de New York ont interrogé plus de 1 200 hommes gays ou bisexuels en 2004 ; l'étude a montré que près de 20 % d'entre eux ont pratiqué une ou plusieurs fois le snowballing[1].
-Chez les couples hétérosexuels, la femme après une fellation peut retourner dans la bouche de son partenaire, le sperme mélangé à sa salive (et vice versa). C'est de ce mélange provoquant une augmentation de volume, que vient le terme snowballing[2].
-Cette pratique est populaire dans le milieu du cinéma pornographique pour son effet visuel[3] ; il y est souvent pratiqué entre femmes, dans les films mettant en scène la sexualité de groupe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des chercheurs de New York ont interrogé plus de 1 200 hommes gays ou bisexuels en 2004 ; l'étude a montré que près de 20 % d'entre eux ont pratiqué une ou plusieurs fois le snowballing.
+Chez les couples hétérosexuels, la femme après une fellation peut retourner dans la bouche de son partenaire, le sperme mélangé à sa salive (et vice versa). C'est de ce mélange provoquant une augmentation de volume, que vient le terme snowballing.
+Cette pratique est populaire dans le milieu du cinéma pornographique pour son effet visuel ; il y est souvent pratiqué entre femmes, dans les films mettant en scène la sexualité de groupe.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le film Clerks : Les Employés modèles de Kevin Smith sorti en 1994, le personnage de Willam Black (Scott Mosier) est surnommé snowballing car il s'adonne à cette pratique[4].
-La pratique est mentionnée mais pas explicitement définie dans le film de Chris Columbus, « Ma meilleure ennemie », lorsque l'un des adolescents du film est ridiculisé pour ne pas savoir ce que c'est[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le film Clerks : Les Employés modèles de Kevin Smith sorti en 1994, le personnage de Willam Black (Scott Mosier) est surnommé snowballing car il s'adonne à cette pratique.
+La pratique est mentionnée mais pas explicitement définie dans le film de Chris Columbus, « Ma meilleure ennemie », lorsque l'un des adolescents du film est ridiculisé pour ne pas savoir ce que c'est.
 </t>
         </is>
       </c>
